--- a/doc/ToolFlowBlockDiagram.xlsx
+++ b/doc/ToolFlowBlockDiagram.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Google Drive\local_repositories\BTC-Reverse\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\local_repositories\unified-btc-reverse\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB911336-8E35-4901-9BB3-75881B47E505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EDF1FB-2BC9-4542-8114-F27E8E9591F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24930" yWindow="0" windowWidth="20865" windowHeight="11925" activeTab="1" xr2:uid="{E8F87651-40E8-40BE-A08A-4E4C8B877C33}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="12900" activeTab="1" xr2:uid="{E8F87651-40E8-40BE-A08A-4E4C8B877C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Block Diagram" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>zak</t>
   </si>
@@ -86,9 +87,6 @@
   </si>
   <si>
     <t>Header</t>
-  </si>
-  <si>
-    <t>BRN file Header</t>
   </si>
   <si>
     <t>File System Header</t>
@@ -149,6 +147,15 @@
   </si>
   <si>
     <t>https://browningtrailcameras.zendesk.com/hc/en-us/sections/200943558-SOFTWARE-UPGRADES</t>
+  </si>
+  <si>
+    <t>BRN file Header/SPHOST.header</t>
+  </si>
+  <si>
+    <t>SPHOST.header</t>
+  </si>
+  <si>
+    <t>Raw C</t>
   </si>
 </sst>
 </file>
@@ -266,14 +273,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3984,9 +3993,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4024,7 +4033,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4130,7 +4139,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4272,7 +4281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4293,7 +4302,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4316,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECA299C-0DD0-4573-8F9C-9001339EF80B}">
   <dimension ref="A5:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,16 +4344,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>37</v>
+      <c r="A5" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4362,15 +4371,15 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>2</v>
@@ -4378,7 +4387,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -4386,9 +4395,9 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -4397,9 +4406,9 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -4408,7 +4417,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
@@ -4422,7 +4431,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
@@ -4431,48 +4440,50 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
         <v>26</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4508,8 +4519,8 @@
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
@@ -4518,8 +4529,8 @@
       <c r="D34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
       <c r="L34" s="3" t="s">
         <v>5</v>
       </c>
@@ -4528,10 +4539,10 @@
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="12"/>
+      <c r="I35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="15"/>
       <c r="L35" s="4" t="s">
         <v>6</v>
       </c>
@@ -4570,7 +4581,7 @@
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
